--- a/data/trans_camb/P37-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P37-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.420493962733048</v>
+        <v>-3.840850634563387</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.773100249171521</v>
+        <v>-5.485027945641254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.749008062205451</v>
+        <v>6.982104012851445</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.26454056712065</v>
+        <v>-2.330504692805869</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.657562023458451</v>
+        <v>-1.977137097288138</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>15.08617891900138</v>
+        <v>14.75493666871687</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.244892128504397</v>
+        <v>-0.809715463438746</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.463523138538288</v>
+        <v>-1.967066603164636</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.22270745955496</v>
+        <v>12.4874046600216</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.586726593420895</v>
+        <v>8.17801942187155</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.029807128317311</v>
+        <v>5.930732385419311</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.77276267101666</v>
+        <v>19.61635917910609</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.28408130762206</v>
+        <v>10.51436973270322</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.916604062683547</v>
+        <v>9.860229290663378</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>26.61645104176806</v>
+        <v>26.70254568908589</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.457537978837285</v>
+        <v>7.872467983401872</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.146594667767189</v>
+        <v>6.441398209859566</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>21.58435943513222</v>
+        <v>21.63436120373474</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.239811726812631</v>
+        <v>-0.2138077973479285</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3662381539348063</v>
+        <v>-0.3159178689147936</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3758529566883171</v>
+        <v>0.3788392995334762</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1107457680920057</v>
+        <v>-0.1577865597230409</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1321965578075967</v>
+        <v>-0.1316487751886249</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9359630433634186</v>
+        <v>0.9669933877698638</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08638954502987714</v>
+        <v>-0.05592948502626664</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1539337087401545</v>
+        <v>-0.1300535816750515</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.8192786640012648</v>
+        <v>0.7801406300339602</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7250028366994803</v>
+        <v>0.7121702434666105</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5149800259680418</v>
+        <v>0.5015333890737186</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.680402095295339</v>
+        <v>1.609082989557659</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.142321960220901</v>
+        <v>1.092970339011738</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.083489387985335</v>
+        <v>1.064669199413906</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.954820388039773</v>
+        <v>2.919424594395928</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6434370656482705</v>
+        <v>0.6737643593330576</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5589922468666283</v>
+        <v>0.5818792717908083</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.931265567631551</v>
+        <v>1.947253178679912</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>3.189269924480245</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>17.66906529211618</v>
+        <v>17.66906529211619</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.985700285151465</v>
+        <v>2.596340314232364</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.313364241320031</v>
+        <v>0.971892771471996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11.82677210744242</v>
+        <v>12.255375078669</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3780415266263153</v>
+        <v>0.6396159694071609</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.321741137523047</v>
+        <v>-3.392766761234196</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.53387892365964</v>
+        <v>13.81748553627499</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.946351478717278</v>
+        <v>3.039863783766929</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1460278275670809</v>
+        <v>0.2918720489542682</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>13.91220462810332</v>
+        <v>14.68308432220286</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.52354411580601</v>
+        <v>11.69706344056507</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.20842699592163</v>
+        <v>10.08445799226711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22.12012800217444</v>
+        <v>22.98120976601989</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.507466461573994</v>
+        <v>9.493807712392261</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.002440754676373</v>
+        <v>5.050715442842496</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.60565185971271</v>
+        <v>23.02353204276148</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.332057945339269</v>
+        <v>9.55264006800871</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.255412930449181</v>
+        <v>6.735470258047499</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.96270355035705</v>
+        <v>21.37033454374253</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.2805630152155092</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.554363961590271</v>
+        <v>1.554363961590272</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2208182553150218</v>
+        <v>0.1802453241851064</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1072541668395281</v>
+        <v>0.07842222407835635</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.9538542212649588</v>
+        <v>0.9603613335404443</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01821418710568311</v>
+        <v>0.03352411258686112</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.241028157304126</v>
+        <v>-0.2465764817951421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8922495882627418</v>
+        <v>0.9321705840481705</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2305072237368799</v>
+        <v>0.2379862975961655</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.002009508365736224</v>
+        <v>0.02046535853981989</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.057052558041482</v>
+        <v>1.135018864902402</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.489472777269759</v>
+        <v>1.411977967681602</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.257641202793108</v>
+        <v>1.18270871067911</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.750053900706722</v>
+        <v>2.77362483227441</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9059349896936978</v>
+        <v>0.924035422512498</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4956685073225474</v>
+        <v>0.4983772409907856</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.177373676810213</v>
+        <v>2.23481052279042</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9437404403955769</v>
+        <v>0.975398822472228</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.607678193481744</v>
+        <v>0.6631888382607141</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.147064143763531</v>
+        <v>2.194636216217794</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>3.677690577839751</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11.90643641982773</v>
+        <v>11.90643641982772</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.1863218075486672</v>
@@ -1092,7 +1092,7 @@
         <v>3.158378431679612</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>12.20093073861433</v>
+        <v>12.20093073861432</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3231321691345048</v>
+        <v>-0.5690901832604719</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.016461154592105</v>
+        <v>-2.197374868591119</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.789139415743771</v>
+        <v>6.131627388578862</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.126899118290899</v>
+        <v>-5.861258729011498</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.58562462821156</v>
+        <v>-3.900955843990036</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.486531212558669</v>
+        <v>6.820373967693608</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.390044645001023</v>
+        <v>-1.614135239960007</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.3706564788991</v>
+        <v>-1.003416761884164</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.21348506554147</v>
+        <v>8.256581505317344</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.84793282887114</v>
+        <v>12.14256279219351</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.58461491336539</v>
+        <v>9.333153381367671</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.67032858307846</v>
+        <v>17.91222878690147</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.24194490085678</v>
+        <v>5.507002966482767</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.88931801750603</v>
+        <v>8.868962346775628</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.67740466436803</v>
+        <v>18.20706288577363</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.405165422066781</v>
+        <v>6.583937802692406</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.397463568182388</v>
+        <v>7.072606427188679</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>16.65227935316125</v>
+        <v>16.08590660601483</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2439438186439741</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7897623536345862</v>
+        <v>0.7897623536345859</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.00984908201279387</v>
@@ -1197,7 +1197,7 @@
         <v>0.1852914212198676</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7157874984476678</v>
+        <v>0.7157874984476674</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.01871392149344852</v>
+        <v>-0.03534518535618909</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1109732528951811</v>
+        <v>-0.1193363818146174</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.295183853704853</v>
+        <v>0.3298141609219646</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2824988062841294</v>
+        <v>-0.2738414064431061</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1733933903459833</v>
+        <v>-0.1754457529410183</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2782537702047886</v>
+        <v>0.2936013248988191</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07449693827687807</v>
+        <v>-0.0854109198256655</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.07082374953348657</v>
+        <v>-0.0581149396687065</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4111945222302701</v>
+        <v>0.42415457208129</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.970653495574334</v>
+        <v>0.962770194850012</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8519839358237146</v>
+        <v>0.7781502958097968</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.467161662558468</v>
+        <v>1.452526760852493</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4028198288009346</v>
+        <v>0.3531448568298838</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5535278947714555</v>
+        <v>0.5328810030304305</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.140893155535782</v>
+        <v>1.149497712638454</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5036412350918306</v>
+        <v>0.4323368481936336</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4918334349263662</v>
+        <v>0.4563839392230831</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.111170254082681</v>
+        <v>1.079633618470986</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2946072438524258</v>
+        <v>0.7133685005879998</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.603170895280332</v>
+        <v>2.2193620011214</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11.18855790511341</v>
+        <v>10.89636072628392</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.271431351736768</v>
+        <v>1.347638207230953</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.211226948595931</v>
+        <v>-0.7896302996343847</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.07034754085027</v>
+        <v>13.06019857177715</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.600692475050334</v>
+        <v>2.713303859864763</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.026620984831999</v>
+        <v>1.990755071768147</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>13.55037094813654</v>
+        <v>14.09789923138026</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.86432970181228</v>
+        <v>11.74806773648331</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.92235174929731</v>
+        <v>12.65717982364393</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23.28508425765934</v>
+        <v>23.34779624020359</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.80266600469862</v>
+        <v>12.79378504296063</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.12692827626713</v>
+        <v>10.13344647043054</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.88176162598628</v>
+        <v>23.85724206394749</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.61078617712745</v>
+        <v>10.4988901168143</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.965234203568359</v>
+        <v>9.632612888363058</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>22.02399036886919</v>
+        <v>22.40536490102703</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01037267821474859</v>
+        <v>0.04044569484254901</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.111302677411995</v>
+        <v>0.1339265285227518</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7747599565416239</v>
+        <v>0.7611433645842504</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06805266885452105</v>
+        <v>0.06516623070378727</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07427208634389691</v>
+        <v>-0.0464013150971947</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.615273396883907</v>
+        <v>0.6646331194160342</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1547480391846507</v>
+        <v>0.1585480338449579</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1235970341347251</v>
+        <v>0.1248978362977869</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.8334794952540024</v>
+        <v>0.8583744385329324</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.101890901054598</v>
+        <v>1.193521099976927</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.213280101653332</v>
+        <v>1.275394245103209</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.438399714056025</v>
+        <v>2.398302401279321</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9277985284582764</v>
+        <v>0.9369386599020317</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6946799688032007</v>
+        <v>0.686246026495878</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.759357587734389</v>
+        <v>1.763680128588126</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8379965298598008</v>
+        <v>0.851875484741958</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8062708607890279</v>
+        <v>0.7795213319208197</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.765242414561931</v>
+        <v>1.772598232415378</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-4.200283242465663</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>15.90542606191294</v>
+        <v>15.90542606191295</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.377961908399721</v>
+        <v>-6.150420397781967</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.441818732102004</v>
+        <v>-9.270035412913019</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.647184607141813</v>
+        <v>5.881026680469915</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-9.033388150553163</v>
+        <v>-8.271548107756344</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-13.5816230844293</v>
+        <v>-14.12578422487262</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>10.577080794373</v>
+        <v>9.882216403933414</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.373122164318557</v>
+        <v>-5.39640639839828</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-9.521050181540138</v>
+        <v>-9.230834723818893</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>10.87067582371342</v>
+        <v>10.36517335079754</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.924623762528885</v>
+        <v>9.009744191292365</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.387726086109856</v>
+        <v>4.662316290017254</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20.47315667876886</v>
+        <v>21.1083743109724</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.9382521097322</v>
+        <v>7.542526737030173</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.308337057394026</v>
+        <v>1.791482704482029</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>24.8594576310281</v>
+        <v>24.34716820923972</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.604938928021958</v>
+        <v>5.57302976392018</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7771581236978047</v>
+        <v>0.4449609659596747</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>21.37335702438324</v>
+        <v>20.60810097138428</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.3040885987014915</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9003063986580935</v>
+        <v>0.9003063986580931</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.01965289788728807</v>
@@ -1625,7 +1625,7 @@
         <v>-0.2371045730441468</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.8978559391821642</v>
+        <v>0.8978559391821646</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3529860957275545</v>
+        <v>-0.3215318256651847</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4860425192241781</v>
+        <v>-0.4756919495601968</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3354420817354737</v>
+        <v>0.2942336125466529</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3717226710666223</v>
+        <v>-0.3635789281519851</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5731964437352541</v>
+        <v>-0.5710384759924647</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4245802073080752</v>
+        <v>0.3755453538937418</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2595893556759737</v>
+        <v>-0.2544418367438684</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4546854519455992</v>
+        <v>-0.4523218354587702</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5200400302443076</v>
+        <v>0.4985637455017078</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7380099250364507</v>
+        <v>0.7498620035555162</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3790384477856429</v>
+        <v>0.3937755715507558</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.78268953385901</v>
+        <v>1.828717551479625</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4356102739035567</v>
+        <v>0.4644268318994864</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.08001179902157494</v>
+        <v>0.1141413622394297</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.602798895433829</v>
+        <v>1.626519935213766</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3733338284165764</v>
+        <v>0.3832770127117783</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0500658200356912</v>
+        <v>0.04331699490409927</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.485170291007548</v>
+        <v>1.460269429800264</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>5.800429072626659</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>19.49461970328819</v>
+        <v>19.49461970328817</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.697957153122003</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.258875948748906</v>
+        <v>1.706393763126851</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.4411181522962893</v>
+        <v>-0.01178122660546058</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>8.084158402063474</v>
+        <v>7.007881211881132</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.023708870362236</v>
+        <v>-1.844306159291764</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.207668020542519</v>
+        <v>-0.7956621294316754</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>12.38532348048857</v>
+        <v>12.81740093716038</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.023668797241723</v>
+        <v>1.880951763013601</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.546516219475678</v>
+        <v>1.677965412563201</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>11.63069207471981</v>
+        <v>11.87553280413881</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.32332780273567</v>
+        <v>15.53373402203775</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.62622620725107</v>
+        <v>12.68384000085642</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>19.20948111007564</v>
+        <v>19.57061074796793</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.89692853639135</v>
+        <v>12.54194143412389</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>12.68207921494493</v>
+        <v>13.60629005457324</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>25.37864792889888</v>
+        <v>25.59584272663825</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>11.41385065635284</v>
+        <v>11.09579000942393</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.79450668763649</v>
+        <v>10.4857745764798</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>21.39126615504473</v>
+        <v>20.58023998980695</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.3299688952586284</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.108990049949556</v>
+        <v>1.108990049949555</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4359386092453643</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.08283323649420059</v>
+        <v>0.09936179213890867</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.02071708960115704</v>
+        <v>-0.003037285433119426</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.487944842360351</v>
+        <v>0.4155619525543511</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.09852187114337446</v>
+        <v>-0.08939116981434415</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.05938428988596368</v>
+        <v>-0.06082581638550881</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5802246756478172</v>
+        <v>0.5911214121537464</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1063532505279829</v>
+        <v>0.1053234632932302</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.08232737770506085</v>
+        <v>0.089864160430861</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.6265877654782914</v>
+        <v>0.6615500142691849</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.495320531592759</v>
+        <v>1.533593742810791</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.203069528621649</v>
+        <v>1.231176785462555</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.863784627759642</v>
+        <v>2.089263970006922</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.8087116249738866</v>
+        <v>0.8709574649024669</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.8834405107693086</v>
+        <v>0.9494126655165112</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.799618463490366</v>
+        <v>1.807453408515175</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8640761604334971</v>
+        <v>0.8338651529277469</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.8137536521634349</v>
+        <v>0.7702558516901972</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.652405647339944</v>
+        <v>1.590657717731677</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.512074188936546</v>
+        <v>-2.156220139827549</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.53881896422038</v>
+        <v>-2.585818247924128</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>12.77018255322586</v>
+        <v>13.01881951743071</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.858071213524638</v>
+        <v>-5.055385423848681</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.075906119840172</v>
+        <v>-2.100505342335893</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>14.62770448536491</v>
+        <v>15.0293193015986</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.106362585577194</v>
+        <v>-2.252657654725983</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.272288233971789</v>
+        <v>-1.213437451823405</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>15.27235668537663</v>
+        <v>15.18329966207375</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.893197224353237</v>
+        <v>6.439192761228045</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.402159504301301</v>
+        <v>5.617502432297271</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>22.41997737270225</v>
+        <v>22.51218473366972</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.598576791456216</v>
+        <v>3.994038877070162</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>6.690355072865955</v>
+        <v>6.436269325340451</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>23.76492234859319</v>
+        <v>23.58663952431496</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.823180488078287</v>
+        <v>3.847477558528253</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.732081219760605</v>
+        <v>4.94299656756282</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>21.8060894351021</v>
+        <v>21.80075211700662</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.09126112334759554</v>
+        <v>-0.1281311301850323</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1553886968196234</v>
+        <v>-0.1555810731030657</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.7338624566175687</v>
+        <v>0.7353592971373364</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2540054010669022</v>
+        <v>-0.2588601916053352</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1125558245144771</v>
+        <v>-0.1096890521612147</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7342267910186518</v>
+        <v>0.7502990524600535</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1190799632934401</v>
+        <v>-0.126410677704419</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.07072328563190113</v>
+        <v>-0.06847799211349408</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.8594591487282893</v>
+        <v>0.844877204900594</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5325639686066317</v>
+        <v>0.5054703194716054</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4197136915308698</v>
+        <v>0.4206625271474955</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.736018787589226</v>
+        <v>1.758281855566173</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.234470257207944</v>
+        <v>0.2711448481738736</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4432475498746793</v>
+        <v>0.4219519751943229</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.572225934586215</v>
+        <v>1.597745101530374</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.262978802880262</v>
+        <v>0.2750898557849327</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3160763305288208</v>
+        <v>0.3404613949717253</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.503645168234392</v>
+        <v>1.500518215373715</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.88521605843035</v>
+        <v>-2.625393713169784</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.393081804810271</v>
+        <v>-6.857592145633172</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>17.59368609338961</v>
+        <v>17.63241713958337</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.657921501232648</v>
+        <v>-2.517730498694036</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.923490811659827</v>
+        <v>-4.840705086967834</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>22.90365579195372</v>
+        <v>22.82942509385573</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.565514720386701</v>
+        <v>-1.730986300917108</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-4.558888571725301</v>
+        <v>-4.610996639650248</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>21.2815097897494</v>
+        <v>21.43271010444728</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.439834566154252</v>
+        <v>4.669398626171573</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.1509633831159144</v>
+        <v>0.3711741872900987</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>26.22317147331079</v>
+        <v>26.49945994429753</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.072807844087461</v>
+        <v>4.973460011839602</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.514507436304149</v>
+        <v>2.675468714902559</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>30.97607021445936</v>
+        <v>31.02127378696829</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.90832232093062</v>
+        <v>3.991328707505006</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.7806124051628247</v>
+        <v>0.5414893334629667</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>27.29822845094522</v>
+        <v>27.19788470083899</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.2107305264960369</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>1.45059931716123</v>
+        <v>1.450599317161231</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.08293113228055612</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1698035220753224</v>
+        <v>-0.1562747542652102</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3901470468917529</v>
+        <v>-0.3980764425751251</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>1.023132816855095</v>
+        <v>1.022299787502054</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1619528230895738</v>
+        <v>-0.1493030554887592</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2964818018029043</v>
+        <v>-0.2910647551286971</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>1.354045896640143</v>
+        <v>1.336900495397474</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.09711372257390362</v>
+        <v>-0.1053058838940466</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2808191806128659</v>
+        <v>-0.2816235615140144</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.273549018521169</v>
+        <v>1.321243039151224</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3399729642827526</v>
+        <v>0.3576680770856755</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.01011268503482309</v>
+        <v>0.03401687876818033</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.99463244238302</v>
+        <v>2.013428602742008</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3824963959850866</v>
+        <v>0.3698942846671107</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1802483735107657</v>
+        <v>0.2045805957857837</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>2.432727913990881</v>
+        <v>2.448582071265492</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2813355487536448</v>
+        <v>0.2903511487075517</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.05881550854318118</v>
+        <v>0.03767381068278984</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>2.03799425318841</v>
+        <v>2.013238735092534</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>1.43962477905723</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>20.14247579865765</v>
+        <v>20.14247579865764</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>3.081377736944521</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>2.066662864563853</v>
+        <v>1.678233219458584</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.2382371858950618</v>
+        <v>0.157865127163647</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>14.99923425729431</v>
+        <v>14.97526304748571</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.53092427151218</v>
+        <v>0.6713603796115081</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.5526820017622955</v>
+        <v>-0.4219226951812126</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>18.30704081997465</v>
+        <v>18.26334300796561</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1.754171305804118</v>
+        <v>1.822189001810797</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.4213482839946291</v>
+        <v>0.3678184357095275</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>17.33277355551953</v>
+        <v>17.19865432393117</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.560444492730539</v>
+        <v>5.615805663469948</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>3.810136549499639</v>
+        <v>3.557737909968238</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>19.2369276954552</v>
+        <v>18.99112124682175</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.334288614089346</v>
+        <v>4.361010246280332</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.128907262815252</v>
+        <v>3.172140381716091</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>21.99126920591694</v>
+        <v>22.11340602103162</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.484371283842456</v>
+        <v>4.349935693944873</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>2.964593087022088</v>
+        <v>2.952018275285796</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>20.0670716100156</v>
+        <v>20.06492336491863</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.09082124470655704</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>1.270723281592714</v>
+        <v>1.270723281592713</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.2070821005813346</v>
@@ -2481,7 +2481,7 @@
         <v>0.1111103237699204</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>1.253267658242007</v>
+        <v>1.253267658242006</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1400510801098869</v>
+        <v>0.1166073627353098</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.014624158883781</v>
+        <v>0.01094733999383178</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>1.010734129371211</v>
+        <v>1.01300303045903</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.03338309420111905</v>
+        <v>0.040297104321809</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.03463663421613647</v>
+        <v>-0.02505691985330063</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>1.082289051958092</v>
+        <v>1.086622205935507</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.113758755179617</v>
+        <v>0.1167300643530446</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.02653458135921868</v>
+        <v>0.02555549019060015</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>1.108792345404773</v>
+        <v>1.102168826762068</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4317612924547706</v>
+        <v>0.4231670013994975</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.2851685925371448</v>
+        <v>0.2713911098995596</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.475803111698633</v>
+        <v>1.449892603057037</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2936103158955018</v>
+        <v>0.2850885625623495</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2077738678750844</v>
+        <v>0.2091436403650635</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.495241678536936</v>
+        <v>1.496821548607476</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.3182380755514468</v>
+        <v>0.3049544761015344</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.209222654650202</v>
+        <v>0.2100834255324496</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.406977771030939</v>
+        <v>1.411828272725768</v>
       </c>
     </row>
     <row r="58">
